--- a/biology/Botanique/Arbres_des_Premiers_ministres_français/Arbres_des_Premiers_ministres_français.xlsx
+++ b/biology/Botanique/Arbres_des_Premiers_ministres_français/Arbres_des_Premiers_ministres_français.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+          <t>Arbres_des_Premiers_ministres_français</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arbres des Premiers ministres sont, en France, des arbres que les Premiers ministres plantent dans le jardin de leur résidence officielle, l'hôtel de Matignon, après y avoir été en poste pendant plusieurs mois. Cette tradition de la vie politique française est apparue en 1978.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+          <t>Arbres_des_Premiers_ministres_français</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tradition est inaugurée par Raymond Barre en 1978. Malgré l'alternance portée par les élections législatives de 1981, son successeur Pierre Mauroy perpétue la tradition en plantant un chêne de Hongrie lors du deuxième anniversaire de son arrivée à Matignon[1].
-La seule rupture dans la tradition est due à Jacques Chirac, qui n'en plante pas lorsqu'il devient Premier ministre de la première cohabitation[2] entre 1986 et 1988. Gilles Boyer interprète ce refus comme un manque de temps, ou alors, comme le signe de la volonté de Jacques Chirac de ne pas rester à Matignon mais d'être élu président de la République au plus vite[3]. Chirac laisse tout de même une trace de son passage dans le jardin de Matignon en y plantant des rosiers[4].
-En 1998, Lionel Jospin décide de planter un orme offert par l'Institut national de la recherche agronomique (INRA)[5]. À l'occasion de la couverture de l'évènement par le Le Figaro et Le Parisien, Le Monde écrit en 1998 que pour « tout premier ministre [...], pour peu qu'il fasse la preuve de sa longévité, six mois de Matignon sont exigés par un code non écrit » pour planter un arbre[6].
-Plusieurs des arbres ont dû être abattus, comme le chêne de Hongrie de Pierre Mauroy, qui a tenu trois ans. Chaque arbre tombé a été replanté sur ordre du Premier ministre[7],[8]. En particulier, près de 30 ans après avoir planté en tant que Premier ministre un copalme qui n'a pas survécu, Michel Rocard en replante un lui-même à l'invitation de Manuel Valls, son ancien conseiller devenu à son tour Premier ministre[9],[10].
-Le 21 février 2015, François Hollande est le premier président de la République à faire de même dans le jardin de sa résidence officielle, le palais de l'Élysée : après avoir visité le Salon de l'agriculture, il plante un chêne offert par l'Office national des forêts (ONF) pour le 50e anniversaire de sa création[11],[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tradition est inaugurée par Raymond Barre en 1978. Malgré l'alternance portée par les élections législatives de 1981, son successeur Pierre Mauroy perpétue la tradition en plantant un chêne de Hongrie lors du deuxième anniversaire de son arrivée à Matignon.
+La seule rupture dans la tradition est due à Jacques Chirac, qui n'en plante pas lorsqu'il devient Premier ministre de la première cohabitation entre 1986 et 1988. Gilles Boyer interprète ce refus comme un manque de temps, ou alors, comme le signe de la volonté de Jacques Chirac de ne pas rester à Matignon mais d'être élu président de la République au plus vite. Chirac laisse tout de même une trace de son passage dans le jardin de Matignon en y plantant des rosiers.
+En 1998, Lionel Jospin décide de planter un orme offert par l'Institut national de la recherche agronomique (INRA). À l'occasion de la couverture de l'évènement par le Le Figaro et Le Parisien, Le Monde écrit en 1998 que pour « tout premier ministre [...], pour peu qu'il fasse la preuve de sa longévité, six mois de Matignon sont exigés par un code non écrit » pour planter un arbre.
+Plusieurs des arbres ont dû être abattus, comme le chêne de Hongrie de Pierre Mauroy, qui a tenu trois ans. Chaque arbre tombé a été replanté sur ordre du Premier ministre,. En particulier, près de 30 ans après avoir planté en tant que Premier ministre un copalme qui n'a pas survécu, Michel Rocard en replante un lui-même à l'invitation de Manuel Valls, son ancien conseiller devenu à son tour Premier ministre,.
+Le 21 février 2015, François Hollande est le premier président de la République à faire de même dans le jardin de sa résidence officielle, le palais de l'Élysée : après avoir visité le Salon de l'agriculture, il plante un chêne offert par l'Office national des forêts (ONF) pour le 50e anniversaire de sa création,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+          <t>Arbres_des_Premiers_ministres_français</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+          <t>Arbres_des_Premiers_ministres_français</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,19 +590,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présence ministérielle et affirmation de l'existence politique
-Dans leur livre L'Heure de vérité, Édouard Philippe et Gilles Boyer font remarquer que, outre le portrait qui figure dans le grand livre du premier étage, l'arbre est « la seule trace visible qui restera de leur passage [à l'hôtel Matignon] »[25]. Le Monde ironise : « Raymond Barre fut le premier, en 1980, à marquer, ainsi, son territoire »[6].
-Marque d'un programme politique
-Roland Dumas et François Dessy remarquent la symbolique de l'arbre dans la mythologie politique française, remontant au chêne de Saint-Louis[26] au bois de Vincennes. Le chêne est l'arbre qui a été le plus choisi, avec cinq arbres (Pierre Mauroy, Laurent Fabius, Dominique de Villepin, Manuel Valls et Élisabeth Borne), du fait de sa symbolique de longévité[27].
-Dans un article de septembre 1988 titré « Du chêne à l'orme », le journal Le Monde écrit que Michel Rocard penche d'abord pour un orme : « il s'agit de montrer [...] que, face à la “maladie des ormes” qui décime ces arbres, on ne baisse pas les bras. C'est, en somme, à l'échelon végétal, l'affirmation du combat de la vie »[28],[29]. Quelques mois plus tard, il opte finalement pour un copalme. Jean Amadou rapporte que le choix de cet arbre peu connu avait pour but d'étonner ses visiteurs et de marquer sa culture. Il aurait déclaré que « Mitterrand, qui prétend s'y connaître en arbre, ne sait rien sur le copalme. Ça vous situe le personnage ! »[30].
-Le Monde, couvrant la plante du ginkgo biloba d'Édith Cresson en 1992, remarque que la Première ministre avait insisté, en le plantant, sur le fait que les seuls arbres qui avaient résisté aux bombardements atomiques d'Hiroshima et de Nagasaki au Japon étaient des ginkgo biloba, afin de témoigner de sa propre résistance face aux heurts du poste de Premier ministre[31], qu'elle quitte cependant moins d'un mois plus tard.
-Le journal souligne aussi que le choix de Lionel Jospin pour un orme en 1998 est dû à ce que l'arbre « était en voie de disparition en France avant que les chercheurs de l'INRA ne le sauvent »[6]. Il explique ainsi son choix : « J'avais envie que ce soit un arbre qui avait pu disparaître et qui revit ». Libération y voit un symbole de sa destinée, lui qui pensait arrêter la politique en 1993 pour devenir diplomate, avant de finalement être nommé Premier ministre après les élections législatives de 1997, et de sa volonté de voir la gauche continuer sur cette voie aux élections régionales de 1998 qui ont lieu un mois plus tard[32].
-En 2017, Édouard Philippe choisit un pommier en hommage à l'un des slogans de campagne de Jacques Chirac à l'élection présidentielle de 1995[27].
-Le frêne de Jean Castex en 2021 est présenté par le ministre comme « un bois qui tient bien au feu, qui est très résistant, solide, qui s'abîme peu », en écho à la difficile situation sanitaire relative à la pandémie de Covid-19[23].
-Autres
-L'origine géographique de l'arbre peut également faire allusion au fief politique du Premier ministre. 
-Ainsi, en 2012, Jean-Marc Ayrault choisit le magnolia grandiflora car cette espèce, venue d'Amérique, a été transportée pour la première fois par le port de Nantes, dont il a été maire.
-De même, le pommier planté par Édouard Philippe en 2017 vient de Normandie, où il a été maire du Havre[27].
+          <t>Présence ministérielle et affirmation de l'existence politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur livre L'Heure de vérité, Édouard Philippe et Gilles Boyer font remarquer que, outre le portrait qui figure dans le grand livre du premier étage, l'arbre est « la seule trace visible qui restera de leur passage [à l'hôtel Matignon] ». Le Monde ironise : « Raymond Barre fut le premier, en 1980, à marquer, ainsi, son territoire ».
 </t>
         </is>
       </c>
@@ -597,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+          <t>Arbres_des_Premiers_ministres_français</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,13 +622,96 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Marque d'un programme politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Dumas et François Dessy remarquent la symbolique de l'arbre dans la mythologie politique française, remontant au chêne de Saint-Louis au bois de Vincennes. Le chêne est l'arbre qui a été le plus choisi, avec cinq arbres (Pierre Mauroy, Laurent Fabius, Dominique de Villepin, Manuel Valls et Élisabeth Borne), du fait de sa symbolique de longévité.
+Dans un article de septembre 1988 titré « Du chêne à l'orme », le journal Le Monde écrit que Michel Rocard penche d'abord pour un orme : « il s'agit de montrer [...] que, face à la “maladie des ormes” qui décime ces arbres, on ne baisse pas les bras. C'est, en somme, à l'échelon végétal, l'affirmation du combat de la vie »,. Quelques mois plus tard, il opte finalement pour un copalme. Jean Amadou rapporte que le choix de cet arbre peu connu avait pour but d'étonner ses visiteurs et de marquer sa culture. Il aurait déclaré que « Mitterrand, qui prétend s'y connaître en arbre, ne sait rien sur le copalme. Ça vous situe le personnage ! ».
+Le Monde, couvrant la plante du ginkgo biloba d'Édith Cresson en 1992, remarque que la Première ministre avait insisté, en le plantant, sur le fait que les seuls arbres qui avaient résisté aux bombardements atomiques d'Hiroshima et de Nagasaki au Japon étaient des ginkgo biloba, afin de témoigner de sa propre résistance face aux heurts du poste de Premier ministre, qu'elle quitte cependant moins d'un mois plus tard.
+Le journal souligne aussi que le choix de Lionel Jospin pour un orme en 1998 est dû à ce que l'arbre « était en voie de disparition en France avant que les chercheurs de l'INRA ne le sauvent ». Il explique ainsi son choix : « J'avais envie que ce soit un arbre qui avait pu disparaître et qui revit ». Libération y voit un symbole de sa destinée, lui qui pensait arrêter la politique en 1993 pour devenir diplomate, avant de finalement être nommé Premier ministre après les élections législatives de 1997, et de sa volonté de voir la gauche continuer sur cette voie aux élections régionales de 1998 qui ont lieu un mois plus tard.
+En 2017, Édouard Philippe choisit un pommier en hommage à l'un des slogans de campagne de Jacques Chirac à l'élection présidentielle de 1995.
+Le frêne de Jean Castex en 2021 est présenté par le ministre comme « un bois qui tient bien au feu, qui est très résistant, solide, qui s'abîme peu », en écho à la difficile situation sanitaire relative à la pandémie de Covid-19.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arbres_des_Premiers_ministres_français</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine géographique de l'arbre peut également faire allusion au fief politique du Premier ministre. 
+Ainsi, en 2012, Jean-Marc Ayrault choisit le magnolia grandiflora car cette espèce, venue d'Amérique, a été transportée pour la première fois par le port de Nantes, dont il a été maire.
+De même, le pommier planté par Édouard Philippe en 2017 vient de Normandie, où il a été maire du Havre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arbres_des_Premiers_ministres_français</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_des_Premiers_ministres_fran%C3%A7ais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plantation de chaque arbre est couverte par les médias depuis les années 1980[1],[28].
-Les arbres plantés par les Premiers ministres sont devenus des symboles de la passation de pouvoir entre Premiers ministres. Ils apparaissent dans diverses œuvres de fiction, comme Le Maître d'hôtel de Matignon de Gilles Boyer en 2019[3], Les Derniers Jours de la Cinquième République de Christian Salmon en 2014[33], Article 36 d'Henri Vernet en 2019[34], ou encore La Mort nomade d'Ian Manook en 2016[35].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plantation de chaque arbre est couverte par les médias depuis les années 1980,.
+Les arbres plantés par les Premiers ministres sont devenus des symboles de la passation de pouvoir entre Premiers ministres. Ils apparaissent dans diverses œuvres de fiction, comme Le Maître d'hôtel de Matignon de Gilles Boyer en 2019, Les Derniers Jours de la Cinquième République de Christian Salmon en 2014, Article 36 d'Henri Vernet en 2019, ou encore La Mort nomade d'Ian Manook en 2016.
 </t>
         </is>
       </c>
